--- a/Saimoe MOD Generals Information.xlsx
+++ b/Saimoe MOD Generals Information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>萌战MOD武将索引（备注：技能：黄色为已确定；蓝色为已完成编写）</t>
   </si>
@@ -34,24 +34,21 @@
     <t>MaxHp</t>
   </si>
   <si>
+    <t>导航员Navigator（暂定w）</t>
+  </si>
+  <si>
     <t>珠联璧合</t>
   </si>
   <si>
     <t>八字不合</t>
   </si>
   <si>
-    <t>锁定效果</t>
-  </si>
-  <si>
-    <t>1技能描述</t>
+    <t>状态技</t>
   </si>
   <si>
     <t>1技能objectName</t>
   </si>
   <si>
-    <t>2技能描述</t>
-  </si>
-  <si>
     <t>2技能objectName</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
     <t>A</t>
   </si>
   <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>烈枪</t>
+  </si>
+  <si>
+    <t>殁颅</t>
+  </si>
+  <si>
+    <t>lieqiang</t>
+  </si>
+  <si>
+    <t>molu</t>
+  </si>
+  <si>
     <t>A002</t>
   </si>
   <si>
@@ -82,6 +94,15 @@
     <t>s_kyouko</t>
   </si>
   <si>
+    <t>sayaka</t>
+  </si>
+  <si>
+    <t>缨枪</t>
+  </si>
+  <si>
+    <t>yingqiang</t>
+  </si>
+  <si>
     <t>A003</t>
   </si>
   <si>
@@ -91,13 +112,28 @@
     <t>madoka</t>
   </si>
   <si>
+    <t>慈悲</t>
+  </si>
+  <si>
+    <t>仁悯</t>
+  </si>
+  <si>
+    <t>cibei</t>
+  </si>
+  <si>
+    <t>renmin</t>
+  </si>
+  <si>
     <t>A004</t>
   </si>
   <si>
     <t>美树沙耶加/美樹さやか</t>
   </si>
   <si>
-    <t>sayaka</t>
+    <t>无畏</t>
+  </si>
+  <si>
+    <t>wuwei</t>
   </si>
   <si>
     <t>A005</t>
@@ -109,6 +145,12 @@
     <t>homura</t>
   </si>
   <si>
+    <t>时停</t>
+  </si>
+  <si>
+    <t>shiting</t>
+  </si>
+  <si>
     <t>A006</t>
   </si>
   <si>
@@ -118,6 +160,21 @@
     <t>n_azusa</t>
   </si>
   <si>
+    <t>琴吹紬</t>
+  </si>
+  <si>
+    <t>劝勉</t>
+  </si>
+  <si>
+    <t>妙律</t>
+  </si>
+  <si>
+    <t>quanmian</t>
+  </si>
+  <si>
+    <t>miaolv</t>
+  </si>
+  <si>
     <t>A007</t>
   </si>
   <si>
@@ -127,6 +184,21 @@
     <t>mio</t>
   </si>
   <si>
+    <t>田井中律</t>
+  </si>
+  <si>
+    <t>音装</t>
+  </si>
+  <si>
+    <t>羞涩</t>
+  </si>
+  <si>
+    <t>yinzhuang</t>
+  </si>
+  <si>
+    <t>xiuse</t>
+  </si>
+  <si>
     <t>A008</t>
   </si>
   <si>
@@ -136,6 +208,15 @@
     <t>yui</t>
   </si>
   <si>
+    <t>平沢憂</t>
+  </si>
+  <si>
+    <t>音感</t>
+  </si>
+  <si>
+    <t>yingan</t>
+  </si>
+  <si>
     <t>A009</t>
   </si>
   <si>
@@ -145,6 +226,21 @@
     <t>kanade</t>
   </si>
   <si>
+    <t>音無結弦</t>
+  </si>
+  <si>
+    <t>音刃</t>
+  </si>
+  <si>
+    <t>同心</t>
+  </si>
+  <si>
+    <t>yinren</t>
+  </si>
+  <si>
+    <t>tongxin</t>
+  </si>
+  <si>
     <t>A010</t>
   </si>
   <si>
@@ -154,6 +250,9 @@
     <t>rei</t>
   </si>
   <si>
+    <t>碇シンジ</t>
+  </si>
+  <si>
     <t>A011</t>
   </si>
   <si>
@@ -172,6 +271,9 @@
     <t>inori</t>
   </si>
   <si>
+    <t>桜満集</t>
+  </si>
+  <si>
     <t>A013</t>
   </si>
   <si>
@@ -199,6 +301,9 @@
     <t>lacus</t>
   </si>
   <si>
+    <t>キラ　ヤマト</t>
+  </si>
+  <si>
     <t>A016</t>
   </si>
   <si>
@@ -256,6 +361,9 @@
     <t>nagi</t>
   </si>
   <si>
+    <t>ハヤテ</t>
+  </si>
+  <si>
     <t>C004</t>
   </si>
   <si>
@@ -265,6 +373,9 @@
     <t>suiseiseki</t>
   </si>
   <si>
+    <t>蒼星石</t>
+  </si>
+  <si>
     <t>C005</t>
   </si>
   <si>
@@ -274,6 +385,9 @@
     <t>shinku</t>
   </si>
   <si>
+    <t>桜田ジュン</t>
+  </si>
+  <si>
     <t>C006</t>
   </si>
   <si>
@@ -283,6 +397,9 @@
     <t>t_kyouko</t>
   </si>
   <si>
+    <t>吉川ちなつ</t>
+  </si>
+  <si>
     <t>C007</t>
   </si>
   <si>
@@ -328,6 +445,9 @@
     <t>sakura</t>
   </si>
   <si>
+    <t>ケロ</t>
+  </si>
+  <si>
     <t>C012</t>
   </si>
   <si>
@@ -337,6 +457,9 @@
     <t>toki</t>
   </si>
   <si>
+    <t>清水谷竜華</t>
+  </si>
+  <si>
     <t>C013</t>
   </si>
   <si>
@@ -346,6 +469,9 @@
     <t>saki</t>
   </si>
   <si>
+    <t>竹井久</t>
+  </si>
+  <si>
     <t>C014</t>
   </si>
   <si>
@@ -364,6 +490,9 @@
     <t>koromo</t>
   </si>
   <si>
+    <t>龍門渕透華</t>
+  </si>
+  <si>
     <t>C016</t>
   </si>
   <si>
@@ -373,6 +502,9 @@
     <t>shizuno</t>
   </si>
   <si>
+    <t>赤土 晴絵</t>
+  </si>
+  <si>
     <t>C017</t>
   </si>
   <si>
@@ -403,6 +535,9 @@
     <t>G</t>
   </si>
   <si>
+    <t>岡崎朋也</t>
+  </si>
+  <si>
     <t>G002</t>
   </si>
   <si>
@@ -412,6 +547,9 @@
     <t>fuuko</t>
   </si>
   <si>
+    <t>岡崎汐</t>
+  </si>
+  <si>
     <t>G003</t>
   </si>
   <si>
@@ -421,6 +559,9 @@
     <t>tomoyo</t>
   </si>
   <si>
+    <t>とも</t>
+  </si>
+  <si>
     <t>G004</t>
   </si>
   <si>
@@ -430,6 +571,9 @@
     <t>t_rin</t>
   </si>
   <si>
+    <t>英霊卫宫</t>
+  </si>
+  <si>
     <t>G005</t>
   </si>
   <si>
@@ -439,6 +583,9 @@
     <t>altria</t>
   </si>
   <si>
+    <t>衛宮士郎</t>
+  </si>
+  <si>
     <t>G006</t>
   </si>
   <si>
@@ -457,6 +604,9 @@
     <t>rika</t>
   </si>
   <si>
+    <t>羽入</t>
+  </si>
+  <si>
     <t>G008</t>
   </si>
   <si>
@@ -466,6 +616,9 @@
     <t>rena</t>
   </si>
   <si>
+    <t>前原圭一</t>
+  </si>
+  <si>
     <t>G009</t>
   </si>
   <si>
@@ -502,6 +655,9 @@
     <t>n_rin</t>
   </si>
   <si>
+    <t>理樹子</t>
+  </si>
+  <si>
     <t>G013</t>
   </si>
   <si>
@@ -511,6 +667,9 @@
     <t>misuzu</t>
   </si>
   <si>
+    <t>国崎往人</t>
+  </si>
+  <si>
     <t>G014</t>
   </si>
   <si>
@@ -520,6 +679,9 @@
     <t>setsuna</t>
   </si>
   <si>
+    <t>。。。</t>
+  </si>
+  <si>
     <t>G015</t>
   </si>
   <si>
@@ -538,6 +700,9 @@
     <t>ayu</t>
   </si>
   <si>
+    <t>相沢祐一</t>
+  </si>
+  <si>
     <t>G017</t>
   </si>
   <si>
@@ -556,6 +721,9 @@
     <t>komari</t>
   </si>
   <si>
+    <t>棗恭介</t>
+  </si>
+  <si>
     <t>N001</t>
   </si>
   <si>
@@ -568,6 +736,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>坂井悠二/吉田一美</t>
+  </si>
+  <si>
     <t>N002</t>
   </si>
   <si>
@@ -577,6 +748,9 @@
     <t>louise</t>
   </si>
   <si>
+    <t>平贺才人/ティファニア</t>
+  </si>
+  <si>
     <t>N003</t>
   </si>
   <si>
@@ -586,6 +760,9 @@
     <t>ruri</t>
   </si>
   <si>
+    <t>二妹</t>
+  </si>
+  <si>
     <t>N004</t>
   </si>
   <si>
@@ -595,6 +772,9 @@
     <t>tsukiko</t>
   </si>
   <si>
+    <t>横寺陽人</t>
+  </si>
+  <si>
     <t>N005</t>
   </si>
   <si>
@@ -613,6 +793,9 @@
     <t>yuki</t>
   </si>
   <si>
+    <t>キョン</t>
+  </si>
+  <si>
     <t>N007</t>
   </si>
   <si>
@@ -640,6 +823,9 @@
     <t>taiga</t>
   </si>
   <si>
+    <t>高須竜児/櫛枝実乃梨</t>
+  </si>
+  <si>
     <t>N010</t>
   </si>
   <si>
@@ -649,6 +835,9 @@
     <t>aria</t>
   </si>
   <si>
+    <t>遠山キンジ/レキ</t>
+  </si>
+  <si>
     <t>N011</t>
   </si>
   <si>
@@ -658,6 +847,9 @@
     <t>ruiko</t>
   </si>
   <si>
+    <t>初春飾利</t>
+  </si>
+  <si>
     <t>N012</t>
   </si>
   <si>
@@ -667,6 +859,9 @@
     <t>mikoto</t>
   </si>
   <si>
+    <t>白井黒子</t>
+  </si>
+  <si>
     <t>N013</t>
   </si>
   <si>
@@ -676,6 +871,9 @@
     <t>eru</t>
   </si>
   <si>
+    <t>折木奉太郎/伊原摩耶花</t>
+  </si>
+  <si>
     <t>N014</t>
   </si>
   <si>
@@ -685,6 +883,9 @@
     <t>asuna</t>
   </si>
   <si>
+    <t>キリト/ユイ</t>
+  </si>
+  <si>
     <t>N015</t>
   </si>
   <si>
@@ -694,6 +895,9 @@
     <t>sena</t>
   </si>
   <si>
+    <t>羽瀬川小鳩</t>
+  </si>
+  <si>
     <t>N016</t>
   </si>
   <si>
@@ -703,6 +907,9 @@
     <t>hitagi</t>
   </si>
   <si>
+    <t>阿良々木暦</t>
+  </si>
+  <si>
     <t>N017</t>
   </si>
   <si>
@@ -712,6 +919,9 @@
     <t>rikka</t>
   </si>
   <si>
+    <t>富樫勇太/凸守早苗</t>
+  </si>
+  <si>
     <t>N018</t>
   </si>
   <si>
@@ -719,6 +929,9 @@
   </si>
   <si>
     <t>holo</t>
+  </si>
+  <si>
+    <t>クラフト・ロレンス</t>
   </si>
 </sst>
 </file>
@@ -740,8 +953,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color indexed="0"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -753,7 +968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -761,33 +976,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1102,11 +1416,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1133,7 +1447,7 @@
   <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1167,1075 +1481,2217 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" ht="34.5" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>696</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="K13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A15" t="s">
+      <c r="K14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>696</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A17" t="s">
+      <c r="K15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="K16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A18" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A20" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A21" t="s">
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6969</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="K19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A22" t="s">
+      <c r="K20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A23" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A24" t="s">
+      <c r="B22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A25" t="s">
+      <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A26" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A27" t="s">
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A28" t="s">
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A29" t="s">
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A30" t="s">
+      <c r="C27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C28" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A32" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A33" t="s">
+      <c r="C30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A36" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A37" t="s">
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B37" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A38" t="s">
+      <c r="C34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B38" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A44" t="s">
+      <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A45" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A46" t="s">
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A47" t="s">
+      <c r="C42" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C47" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C43" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A44" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B44" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A50" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B45" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A51" t="s">
+      <c r="D45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B51" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B46" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A52" t="s">
+      <c r="C46" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A53" t="s">
+      <c r="C47" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A48" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B48" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A54" t="s">
+      <c r="C48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A55" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B49" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A56" t="s">
+      <c r="D49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B56" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A57" t="s">
+      <c r="C50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C57" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B51" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="58" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A58" t="s">
+      <c r="C51" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C58" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A52" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C52" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A60" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A53" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B53" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C53" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A61" t="s">
+      <c r="D53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A54" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B54" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C54" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A62" t="s">
+      <c r="D54" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B62" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B55" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A63" t="s">
+      <c r="C55" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C63" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A56" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B56" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C56" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B57" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B58" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C58" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A59" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D66" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C59" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D67" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A68" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A60" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B60" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C60" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A69" t="s">
+      <c r="D60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B69" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A61" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B61" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D69" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A70" t="s">
+      <c r="C61" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C70" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A62" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D70" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B62" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C62" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A63" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D71" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="72" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D72" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A73" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A64" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B64" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C64" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D73" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" ht="50.1" customHeight="1" spans="1:4">
-      <c r="A74" t="s">
+      <c r="D64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A65" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B65" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C65" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" ht="50.1" customHeight="1"/>
-    <row r="76" ht="50.1" customHeight="1"/>
-    <row r="77" ht="50.1" customHeight="1"/>
-    <row r="78" ht="50.1" customHeight="1"/>
-    <row r="79" ht="50.1" customHeight="1"/>
-    <row r="80" ht="50.1" customHeight="1"/>
-    <row r="81" ht="50.1" customHeight="1"/>
-    <row r="82" ht="50.1" customHeight="1"/>
-    <row r="83" ht="50.1" customHeight="1"/>
+      <c r="D65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A68" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A69" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A70" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A72" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A73" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A74" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A75" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A79" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A82" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="7"/>
+    </row>
+    <row r="83" ht="50.1" customHeight="1" spans="1:14">
+      <c r="A83" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="10"/>
+    </row>
     <row r="84" ht="50.1" customHeight="1"/>
     <row r="85" ht="50.1" customHeight="1"/>
     <row r="86" ht="50.1" customHeight="1"/>
     <row r="87" ht="50.1" customHeight="1"/>
     <row r="88" ht="50.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="106">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/Saimoe MOD Generals Information.xlsx
+++ b/Saimoe MOD Generals Information.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\QSanguosha-For-Saimoe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="10340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="307">
   <si>
     <t>萌战MOD武将索引（备注：技能：黄色为已确定；蓝色为已完成编写）</t>
   </si>
@@ -316,12 +321,6 @@
     <t>A017</t>
   </si>
   <si>
-    <t>露蒂/ロッテ</t>
-  </si>
-  <si>
-    <t>astarotte</t>
-  </si>
-  <si>
     <t>A018</t>
   </si>
   <si>
@@ -932,19 +931,25 @@
   </si>
   <si>
     <t>クラフト・ロレンス</t>
+  </si>
+  <si>
+    <t>埃莉诺亚·贝卡/ベイカー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beika</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>マーガレット·バートン</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -956,6 +961,12 @@
       <sz val="10.5"/>
       <color indexed="0"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1049,38 +1060,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1097,21 +1087,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1410,6 +1414,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1442,15 +1447,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -1464,2210 +1468,2142 @@
     <col min="14" max="14" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>6969</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="8" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>6969</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>6969</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="6" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A9" s="2" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>6969</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="8" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A11" s="2" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>6969</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="6" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A13" s="2" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>696</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="8" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A15" s="2" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>696</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="6" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A17" s="2" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>6969</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A19" s="2" t="s">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>6969</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A21" s="2" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A22" s="2" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A23" s="2" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A24" s="2" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A25" s="2" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A27" s="2" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A28" s="2" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="7"/>
-    </row>
-    <row r="57" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="7"/>
-    </row>
-    <row r="58" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="7"/>
-    </row>
-    <row r="59" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="7"/>
-    </row>
-    <row r="60" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="5"/>
+    </row>
+    <row r="61" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="7"/>
-    </row>
-    <row r="61" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="7"/>
-    </row>
-    <row r="62" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="7"/>
-    </row>
-    <row r="64" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="7"/>
-    </row>
-    <row r="65" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="D65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="7"/>
-    </row>
-    <row r="66" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="7"/>
-    </row>
-    <row r="67" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="7"/>
-    </row>
-    <row r="68" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="7"/>
-    </row>
-    <row r="69" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="7"/>
-    </row>
-    <row r="70" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="7"/>
-    </row>
-    <row r="71" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="7"/>
-    </row>
-    <row r="72" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="7"/>
-    </row>
-    <row r="73" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="7"/>
-    </row>
-    <row r="74" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="7"/>
-    </row>
-    <row r="75" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="7"/>
-    </row>
-    <row r="76" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="7"/>
-    </row>
-    <row r="77" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="7"/>
-    </row>
-    <row r="78" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="D78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="7"/>
-    </row>
-    <row r="79" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="7"/>
-    </row>
-    <row r="80" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="7"/>
-    </row>
-    <row r="81" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="D81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="7"/>
-    </row>
-    <row r="82" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="D82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="7"/>
-    </row>
-    <row r="83" ht="50.1" customHeight="1" spans="1:14">
-      <c r="A83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="D83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="10"/>
-    </row>
-    <row r="84" ht="50.1" customHeight="1"/>
-    <row r="85" ht="50.1" customHeight="1"/>
-    <row r="86" ht="50.1" customHeight="1"/>
-    <row r="87" ht="50.1" customHeight="1"/>
-    <row r="88" ht="50.1" customHeight="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="7"/>
+    </row>
+    <row r="84" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="K11:K12"/>
@@ -3680,21 +3616,92 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>